--- a/tools_n_data/four_season-taeyon.xlsx
+++ b/tools_n_data/four_season-taeyon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="91">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -283,16 +283,113 @@
     <t xml:space="preserve">#technic</t>
   </si>
   <si>
+    <t xml:space="preserve">|</t>
+  </si>
+  <si>
     <t xml:space="preserve">정말 너를 사랑 했을 까.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언제야 봄이던가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맞아 그땐 한 참을 서로 가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세익스피어의 연극같은</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막이될 사랑 맞이한듯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다른 걸 좀 ᄇᅠ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I gave you the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너만이 전부라</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 겨울을 주고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">또 여름도 주었지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뜨겁고 차갑던</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그계절에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정말 너를 사랑 했을까</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 너를 사랑 했을 까</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서로를 그리워 했고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서로를 지겨워 하지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 긴 낮과 밤들이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낡아 녹이 슬기 전에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리 다시 반짝이자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">또 계절이 바뀌잖아</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 겨울을 주고 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뜨겁고 차갑던 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 계절에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 너를 사랑 했을까</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가 도 돼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뒤 돌아 볼 때 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">쯤엔 난없 어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우린 꽤 괜찬았어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그거면 된거야</t>
+  </si>
+  <si>
+    <t xml:space="preserve">떠날 때~ 아하~~</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY&quot;년 &quot;M&quot;월 &quot;D&quot;일 &quot;H&quot;시 &quot;M&quot;분 &quot;S\초"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -458,7 +555,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,15 +660,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -644,26 +745,26 @@
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="11" style="3" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="19" style="3" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="27" style="3" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="35" style="3" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="43" style="3" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="50" style="1" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="88" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="3" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="11" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="19" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="27" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="35" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="43" style="3" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="87" min="50" style="1" width="3.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="88" style="3" width="3.14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1718,11 +1819,29 @@
         <v>57</v>
       </c>
       <c r="B26" s="25"/>
+      <c r="F26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="J26" s="2"/>
+      <c r="N26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="R26" s="2"/>
+      <c r="V26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="Z26" s="2"/>
+      <c r="AD26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AH26" s="2"/>
+      <c r="AL26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AP26" s="2"/>
+      <c r="AT26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AX26" s="13" t="s">
         <v>36</v>
       </c>
@@ -1807,17 +1926,29 @@
         <v>34</v>
       </c>
       <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
+      <c r="AL27" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
+      <c r="AN27" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AO27" s="20"/>
-      <c r="AP27" s="19"/>
+      <c r="AP27" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
+      <c r="AR27" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
+      <c r="AT27" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
+      <c r="AV27" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AW27" s="20"/>
       <c r="AX27" s="13" t="s">
         <v>36</v>
@@ -1872,52 +2003,70 @@
       <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="3" t="n">
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AX28" s="13" t="s">
@@ -1976,6 +2125,24 @@
       <c r="AK29" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="AM29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AX29" s="13" t="s">
         <v>36</v>
       </c>
@@ -2032,6 +2199,24 @@
       <c r="AK30" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="AM30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV30" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AX30" s="13" t="s">
         <v>36</v>
       </c>
@@ -2040,52 +2225,70 @@
       <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3" t="n">
+      <c r="F31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="3" t="n">
+      <c r="J31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="S31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="3" t="n">
+      <c r="R31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AA31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG31" s="3" t="n">
+      <c r="Z31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AI31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK31" s="3" t="n">
+      <c r="AH31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AX31" s="13" t="s">
@@ -2097,7 +2300,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -2110,7 +2313,9 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
+      <c r="N32" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
@@ -2118,7 +2323,9 @@
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
+      <c r="V32" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
       <c r="Y32" s="24"/>
@@ -2126,11 +2333,15 @@
       <c r="AA32" s="24"/>
       <c r="AB32" s="24"/>
       <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
+      <c r="AD32" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
+      <c r="AH32" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="AI32" s="24"/>
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
@@ -2142,7 +2353,9 @@
       <c r="AQ32" s="24"/>
       <c r="AR32" s="24"/>
       <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
+      <c r="AT32" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="AU32" s="24"/>
       <c r="AV32" s="24"/>
       <c r="AW32" s="24"/>
@@ -2185,11 +2398,29 @@
         <v>57</v>
       </c>
       <c r="B34" s="25"/>
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="J34" s="2"/>
+      <c r="N34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="R34" s="2"/>
+      <c r="V34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="Z34" s="2"/>
+      <c r="AD34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AH34" s="2"/>
+      <c r="AL34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AP34" s="2"/>
+      <c r="AT34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AX34" s="13" t="s">
         <v>36</v>
       </c>
@@ -2206,53 +2437,101 @@
       <c r="A35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="19"/>
+      <c r="J35" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="L35" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="N35" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
+      <c r="P35" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="Q35" s="20"/>
-      <c r="R35" s="21"/>
+      <c r="R35" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
+      <c r="T35" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
+      <c r="V35" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
+      <c r="X35" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="Y35" s="20"/>
-      <c r="Z35" s="19"/>
+      <c r="Z35" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
+      <c r="AB35" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
+      <c r="AD35" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
+      <c r="AF35" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AG35" s="20"/>
-      <c r="AH35" s="21"/>
+      <c r="AH35" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
+      <c r="AJ35" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
+      <c r="AL35" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AM35" s="20"/>
-      <c r="AN35" s="20"/>
+      <c r="AN35" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AO35" s="20"/>
-      <c r="AP35" s="19"/>
+      <c r="AP35" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
+      <c r="AR35" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
+      <c r="AT35" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AU35" s="20"/>
-      <c r="AV35" s="20"/>
+      <c r="AV35" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AW35" s="20"/>
       <c r="AX35" s="13" t="s">
         <v>36</v>
@@ -2307,9 +2586,80 @@
       <c r="A36" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="B36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ36" s="22"/>
+      <c r="AK36" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AL36" s="22"/>
-      <c r="AW36" s="22"/>
+      <c r="AM36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="AX36" s="13" t="s">
         <v>36</v>
       </c>
@@ -2318,9 +2668,81 @@
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="B37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AH37" s="21"/>
+      <c r="AI37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AL37" s="22"/>
+      <c r="AM37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AP37" s="21"/>
+      <c r="AQ37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AX37" s="13" t="s">
         <v>36</v>
       </c>
@@ -2329,9 +2751,81 @@
       <c r="A38" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="B38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="AH38" s="21"/>
+      <c r="AI38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AL38" s="22"/>
+      <c r="AM38" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="AN38" s="22"/>
+      <c r="AO38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW38" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="AX38" s="13" t="s">
         <v>36</v>
       </c>
@@ -2339,6 +2833,144 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
         <v>40</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW39" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="AX39" s="13" t="s">
         <v>36</v>
@@ -2352,27 +2984,41 @@
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
+      <c r="N40" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
+      <c r="R40" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
+      <c r="V40" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
+      <c r="Z40" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="AA40" s="24"/>
       <c r="AB40" s="24"/>
       <c r="AC40" s="24"/>
@@ -2380,7 +3026,9 @@
       <c r="AE40" s="24"/>
       <c r="AF40" s="24"/>
       <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
+      <c r="AH40" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="24"/>
       <c r="AK40" s="24"/>
@@ -2435,7 +3083,13 @@
         <v>57</v>
       </c>
       <c r="B42" s="25"/>
+      <c r="F42" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="J42" s="2"/>
+      <c r="N42" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AH42" s="2"/>
@@ -2456,52 +3110,97 @@
       <c r="A43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="H43" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
+      <c r="J43" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+      <c r="L43" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="M43" s="20"/>
+      <c r="N43" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
+      <c r="P43" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
+      <c r="R43" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="T43" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
+      <c r="V43" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
+      <c r="X43" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="Y43" s="20"/>
-      <c r="Z43" s="21"/>
+      <c r="Z43" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
+      <c r="AB43" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
+      <c r="AD43" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
+      <c r="AF43" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AG43" s="20"/>
-      <c r="AH43" s="21"/>
+      <c r="AH43" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AI43" s="20"/>
       <c r="AJ43" s="20"/>
       <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
+      <c r="AL43" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
+      <c r="AN43" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AO43" s="20"/>
-      <c r="AP43" s="19"/>
+      <c r="AP43" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="AQ43" s="20"/>
       <c r="AR43" s="20"/>
       <c r="AS43" s="20"/>
-      <c r="AT43" s="20"/>
+      <c r="AT43" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AU43" s="20"/>
-      <c r="AV43" s="20"/>
+      <c r="AV43" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="AW43" s="20"/>
       <c r="AX43" s="13" t="s">
         <v>36</v>
@@ -2556,6 +3255,78 @@
       <c r="A44" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="C44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AX44" s="13" t="s">
         <v>36</v>
       </c>
@@ -2564,6 +3335,78 @@
       <c r="A45" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="C45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="AX45" s="13" t="s">
         <v>36</v>
       </c>
@@ -2572,6 +3415,78 @@
       <c r="A46" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="C46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW46" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="AX46" s="13" t="s">
         <v>36</v>
       </c>
@@ -2580,6 +3495,78 @@
       <c r="A47" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="B47" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AX47" s="13" t="s">
         <v>36</v>
       </c>
@@ -2588,7 +3575,9 @@
       <c r="A48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -2596,7 +3585,9 @@
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
@@ -2604,15 +3595,21 @@
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
+      <c r="R48" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
+      <c r="V48" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
       <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
+      <c r="Z48" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="AA48" s="24"/>
       <c r="AB48" s="24"/>
       <c r="AC48" s="24"/>
@@ -2620,7 +3617,9 @@
       <c r="AE48" s="24"/>
       <c r="AF48" s="24"/>
       <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
+      <c r="AH48" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="AI48" s="24"/>
       <c r="AJ48" s="24"/>
       <c r="AK48" s="24"/>
@@ -2632,7 +3631,9 @@
       <c r="AQ48" s="24"/>
       <c r="AR48" s="24"/>
       <c r="AS48" s="24"/>
-      <c r="AT48" s="24"/>
+      <c r="AT48" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="AU48" s="24"/>
       <c r="AV48" s="24"/>
       <c r="AW48" s="24"/>
@@ -2696,53 +3697,103 @@
       <c r="A51" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="H51" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
+      <c r="J51" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="L51" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
+      <c r="N51" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
+      <c r="P51" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="Q51" s="20"/>
-      <c r="R51" s="21"/>
+      <c r="R51" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
+      <c r="T51" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
+      <c r="V51" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
+      <c r="X51" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="Y51" s="20"/>
-      <c r="Z51" s="21"/>
+      <c r="Z51" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
+      <c r="AB51" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="20"/>
+      <c r="AD51" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
+      <c r="AF51" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AG51" s="20"/>
-      <c r="AH51" s="21"/>
+      <c r="AH51" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="AI51" s="20"/>
-      <c r="AJ51" s="20"/>
+      <c r="AJ51" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AK51" s="20"/>
-      <c r="AL51" s="20"/>
+      <c r="AL51" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="AM51" s="20"/>
-      <c r="AN51" s="20"/>
+      <c r="AN51" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="AO51" s="20"/>
-      <c r="AP51" s="19"/>
+      <c r="AP51" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20"/>
+      <c r="AR51" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS51" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT51" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AU51" s="20"/>
-      <c r="AV51" s="20"/>
+      <c r="AV51" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="AW51" s="20"/>
       <c r="AX51" s="13" t="s">
         <v>36</v>
@@ -2797,6 +3848,81 @@
       <c r="A52" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="C52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW52" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AX52" s="13" t="s">
         <v>36</v>
       </c>
@@ -2805,6 +3931,81 @@
       <c r="A53" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="C53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW53" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="AX53" s="13" t="s">
         <v>36</v>
       </c>
@@ -2813,6 +4014,81 @@
       <c r="A54" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="C54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW54" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="AX54" s="13" t="s">
         <v>36</v>
       </c>
@@ -2821,6 +4097,135 @@
       <c r="A55" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="B55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV55" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AX55" s="13" t="s">
         <v>36</v>
       </c>
@@ -2829,23 +4234,35 @@
       <c r="A56" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="J56" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
+      <c r="N56" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
+      <c r="P56" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
+      <c r="R56" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
       <c r="U56" s="24"/>
@@ -2853,7 +4270,9 @@
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
       <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
+      <c r="Z56" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="AA56" s="24"/>
       <c r="AB56" s="24"/>
       <c r="AC56" s="24"/>
@@ -2865,13 +4284,19 @@
       <c r="AI56" s="24"/>
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
-      <c r="AL56" s="24"/>
+      <c r="AL56" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
       <c r="AO56" s="24"/>
-      <c r="AP56" s="24"/>
+      <c r="AP56" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="AQ56" s="24"/>
-      <c r="AR56" s="24"/>
+      <c r="AR56" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="AS56" s="24"/>
       <c r="AT56" s="24"/>
       <c r="AU56" s="24"/>
@@ -2937,17 +4362,29 @@
       <c r="A59" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="D59" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="F59" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="H59" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
+      <c r="J59" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
+      <c r="L59" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
       <c r="O59" s="20"/>
@@ -3038,6 +4475,24 @@
       <c r="A60" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="C60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AX60" s="13" t="s">
         <v>36</v>
       </c>
@@ -3046,6 +4501,24 @@
       <c r="A61" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="C61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AX61" s="13" t="s">
         <v>36</v>
       </c>
@@ -3054,6 +4527,24 @@
       <c r="A62" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="C62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AX62" s="13" t="s">
         <v>36</v>
       </c>
@@ -3062,6 +4553,24 @@
       <c r="A63" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="B63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AX63" s="13" t="s">
         <v>36</v>
       </c>
@@ -3070,15 +4579,21 @@
       <c r="A64" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
+      <c r="F64" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
+      <c r="J64" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
